--- a/Casees.xlsx
+++ b/Casees.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -122,12 +122,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate that the Case is edited</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -211,8 +205,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J13" totalsRowShown="0">
-  <x:autoFilter ref="A1:J13"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J7" totalsRowShown="0">
+  <x:autoFilter ref="A1:J7"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -517,7 +511,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J13"/>
+  <x:dimension ref="A1:J7"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -691,130 +685,6 @@
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
     </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s"/>
-      <x:c r="F8" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G8" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="I8" s="0" t="s"/>
-      <x:c r="J8" s="0" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="A9" s="0" t="s"/>
-      <x:c r="B9" s="0" t="s"/>
-      <x:c r="C9" s="0" t="s"/>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G9" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="I9" s="0" t="s"/>
-      <x:c r="J9" s="0" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="A10" s="0" t="s"/>
-      <x:c r="B10" s="0" t="s"/>
-      <x:c r="C10" s="0" t="s"/>
-      <x:c r="D10" s="0" t="s"/>
-      <x:c r="E10" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F10" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G10" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="I10" s="0" t="s"/>
-      <x:c r="J10" s="0" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:10">
-      <x:c r="A11" s="0" t="s"/>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="s"/>
-      <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F11" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G11" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="I11" s="0" t="s"/>
-      <x:c r="J11" s="0" t="s"/>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="A12" s="0" t="s"/>
-      <x:c r="B12" s="0" t="s"/>
-      <x:c r="C12" s="0" t="s"/>
-      <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F12" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G12" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="I12" s="0" t="s"/>
-      <x:c r="J12" s="0" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:10">
-      <x:c r="A13" s="0" t="s"/>
-      <x:c r="B13" s="0" t="s"/>
-      <x:c r="C13" s="0" t="s"/>
-      <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s"/>
-      <x:c r="F13" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s"/>
-      <x:c r="J13" s="0" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
